--- a/InputFile/URL_ID_PWD.xlsx
+++ b/InputFile/URL_ID_PWD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asset_Management_Smoke_Test\Smoke_Test_Scenarios\InputFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294FDC84-70A3-41EA-A2C4-ABAE2600A463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5652FE-42A0-495B-A5BE-744E1EECBA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="15" windowWidth="20460" windowHeight="10770" xr2:uid="{C15377F2-3109-43C2-AAD8-3F0E7E96253C}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" activeTab="1" xr2:uid="{C15377F2-3109-43C2-AAD8-3F0E7E96253C}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>URL</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>Mobo@2023</t>
+  </si>
+  <si>
+    <t>SteveH</t>
+  </si>
+  <si>
+    <t>JohnR</t>
+  </si>
+  <si>
+    <t>Tech@01</t>
+  </si>
+  <si>
+    <t>Mech@03</t>
+  </si>
+  <si>
+    <t>PRD</t>
+  </si>
+  <si>
+    <t>https://prd.mobolutions.com:1443/sap/bc/ui2/flp#Shell-home</t>
   </si>
 </sst>
 </file>
@@ -438,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA50BEF-925F-4C20-9F95-26141A4DC895}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,22 +500,31 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="Shell-home" xr:uid="{BE203819-7CF5-4C5A-BC6F-DB262FFEAD99}"/>
     <hyperlink ref="B3" r:id="rId2" location="Shell-home" xr:uid="{BE4D0F7F-6B77-4444-B9B5-3D73F53A1142}"/>
+    <hyperlink ref="B4" r:id="rId3" location="Shell-home" xr:uid="{3DE2DDFD-CA3A-4FEE-891E-FCC430918B05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71441AFA-4DBA-4483-9165-075018B244EC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,9 +532,10 @@
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -517,8 +545,20 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -528,8 +568,20 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -537,6 +589,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{750FC405-E592-42F2-9B04-53D27F948D33}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{686EBCEB-6344-40B6-9BEA-EA0AB2277DC5}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{DE88BB77-C8E6-42D6-8F92-4B86728329ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
